--- a/03_Scenario/時系列シートtemp.xlsx
+++ b/03_Scenario/時系列シートtemp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomonori\OneDrive\つばめ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomonori\Documents\tsubamesoft\miyanagipj\03_Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,22 +30,6 @@
     <rPh sb="0" eb="3">
       <t>ジケイレツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>せつか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ともや</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -76,13 +60,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>智也</t>
+    <rPh sb="0" eb="2">
+      <t>トモヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水琴</t>
+    <rPh sb="0" eb="2">
+      <t>ミコト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折花</t>
+    <rPh sb="0" eb="2">
+      <t>セツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏奈</t>
+    <rPh sb="0" eb="2">
+      <t>ナツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm/dd\(aaaa\)"/>
+    <numFmt numFmtId="176" formatCode="mm/dd\(aaaa\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -425,7 +437,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,21 +452,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -833,10 +845,10 @@
         <v>42230</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -844,7 +856,7 @@
         <v>42231</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E78" s="5"/>
     </row>
